--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_90_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_90_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.8287780356134182, 2.4877280917453564]</t>
+          <t>[1.828704241113019, 2.4878018862457556]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.1824475474255669, 0.5741146962708079]</t>
+          <t>[0.1825526119899059, 0.5740096317064689]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.0003273364669142964</v>
+        <v>0.0003252387813394986</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0003273364669142964</v>
+        <v>0.0003252387813394986</v>
       </c>
       <c r="W2" t="n">
         <v>25.23925925926019</v>
